--- a/Requisitos/REQUISITOS.xlsx
+++ b/Requisitos/REQUISITOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{609DCF70-7077-40D2-8427-CB4601E64D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C0428-57E6-419C-A9BB-2C8B29E5F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEB30D11-D20A-47FB-9D0C-843D0E40808F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>REQUISITO</t>
   </si>
@@ -151,18 +151,6 @@
   </si>
   <si>
     <t>Ter acesso full no sistema, isso inclui dar acesso para pessoa no sistema, cadastro de pessoas, controlar as hierarquias do sistema até a visualização de tudo no software.</t>
-  </si>
-  <si>
-    <t>Ter acesso total a área de fornecedores, mas nas áreas do sistema de acesso estoque e acesso vendas apenas visualizar. Não pode ter acesso a área de cadastro de usuários e nem de dar hierarquias.</t>
-  </si>
-  <si>
-    <t>Ter acesso total a área de estoque, mas nas áreas do sistema de acesso fornecedores e acesso vendas apenas visualizar. Não pode ter acesso a área de cadastro de usuários e nem de dar hierarquias.</t>
-  </si>
-  <si>
-    <t>Ter acesso total a área de vendas, mas nas áreas do 
-sistema de acesso fornecedores e acesso estoque 
-apenas visualizar. Não pode ter acesso a área de 
-cadastro de usuários e nem de dar hierarquias.</t>
   </si>
   <si>
     <t>LGPD</t>
@@ -198,6 +186,23 @@
 Mobile – Por motivos de segurança o sistema mobile será feito apenas para visualização de dados e informações;
 Desktop – No sistema desktop será possível fazer tudo, desde cadastros até visualizações;
 WEB – Assim como o sistema desktop o sistema WEB será possível fazer todos os processos.</t>
+  </si>
+  <si>
+    <t>Monitoramento da produção</t>
+  </si>
+  <si>
+    <t>O software tera uma sessão para que seja feita o monitoramento da produção.</t>
+  </si>
+  <si>
+    <t>Ter acesso total a área de fornecedores, mas nas áreas do sistema de acesso estoque e acesso vendas apenas visualizar. Acesso ao monitoramento. Não pode ter acesso a área de cadastro de usuários e nem de dar hierarquias.</t>
+  </si>
+  <si>
+    <t>Ter acesso total a área de estoque, mas nas áreas do sistema de acesso fornecedores e acesso vendas apenas visualizar. Acesso ao monitoramento. Não pode ter acesso a área de cadastro de usuários e nem de dar hierarquias.</t>
+  </si>
+  <si>
+    <t>Ter acesso total a área de vendas, mas nas áreas do 
+sistema de acesso fornecedores e acesso estoque 
+apenas visualizar. Acesso ao monitoramento. Não pode ter acesso a área de cadastro de usuários e nem de dar hierarquias.</t>
   </si>
 </sst>
 </file>
@@ -397,7 +402,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F14C57F5-3393-4317-9E3F-A7E44FEF2017}" name="Tabela1" displayName="Tabela1" ref="B3:D20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F14C57F5-3393-4317-9E3F-A7E44FEF2017}" name="Tabela1" displayName="Tabela1" ref="B3:D21" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{948E407E-C55B-4200-A85B-8BD1BBF3ED1D}" name="REQUISITO" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C83131AE-B289-4BFF-9D9C-6C0D430E85C7}" name="TIPO" dataDxfId="1"/>
@@ -724,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C7B6DA-3AC2-49F5-9801-EEB4DB4B5D47}">
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +795,10 @@
         <v>31</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -807,10 +812,10 @@
         <v>32</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -824,7 +829,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -846,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,103 +887,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C20" xr:uid="{EF8B4AEE-1F44-4008-8724-03B3E0A75FE3}">
-      <formula1>$C$4:$C$20</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C21" xr:uid="{EF8B4AEE-1F44-4008-8724-03B3E0A75FE3}">
+      <formula1>$C$4:$C$21</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Requisitos/REQUISITOS.xlsx
+++ b/Requisitos/REQUISITOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrsil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C0428-57E6-419C-A9BB-2C8B29E5F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767F5B2A-0D55-4CEE-96DA-1A80F1FD5B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEB30D11-D20A-47FB-9D0C-843D0E40808F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEB30D11-D20A-47FB-9D0C-843D0E40808F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>REQUISITO</t>
   </si>
@@ -63,62 +63,13 @@
 dados, sendo capaz de filtrar por nome ou CNPJ.</t>
   </si>
   <si>
-    <t>Modificar Dados Forncedores</t>
-  </si>
-  <si>
     <t>Usuários autorizados podem modificar dados de certo fornecedor. Tanto para arrumar erros na hora de digitar, como atualizar os dados.</t>
   </si>
   <si>
     <t>O sistema tem que ser capaz de pessoas autorizadas poderem cadastrar novos fornecedores no sistema, fornecendo informações como nome da empresa, contato, endereço, produtos fornecidos, CNPJ, tempo válido do contrato, razão social.</t>
   </si>
   <si>
-    <t xml:space="preserve">Excluir Fornecedores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar Produtos no Estoque </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizar Todos os Produtos no Estoque </t>
-  </si>
-  <si>
-    <t>O sistema ter de ser capaz de listar todos os produtos que têm no estoque e fornecendo seus dados associados, e tendo a opção de filtro (Por nome).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar Produtos no Estoque </t>
-  </si>
-  <si>
-    <t>Usuários autorizados podem modificar dados de certo produto. Tanto para arrumar erros na hora de digitar, como atualizar os dados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluir produtos no estoque </t>
-  </si>
-  <si>
-    <t>O sistema tem que ser capaz de deixar que pessoas com usuários autorizados exclua produtos do sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir Vendas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar Dados das Vendas </t>
-  </si>
-  <si>
-    <t>O sistema tem que ser capaz de modificar dados das vendas, caso ocorra algum erro 
-ou modificação;</t>
-  </si>
-  <si>
-    <t>O sistema terá de deixar pessoas autorizadas a incluir as vendas, fornecendo dados como: Nome, CPF/CNPJ, O que foi comprado ou o serviço fornecido, o valor total, os valores unitários, a nota fiscal, comprovante de pagamento, endereço, frete.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Visualizar todas as vendas</t>
-  </si>
-  <si>
-    <t>O sistema será capaz de visualizar todas as vendas (e os dados vinculados), e terá filtros para que possa filtrar por nome ou CPF/CNPJ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluir Vendas </t>
   </si>
   <si>
     <t>Hierarquias</t>
@@ -168,18 +119,6 @@
   <si>
     <t>Como o sistema operacional mais usado por todos são o Windows e Android, com uma 
 interface melhor de mexer e se localizar, nossos aplicativos desktop e mobile serão feitos para os sistemas Windows e Android.</t>
-  </si>
-  <si>
-    <t>O sistema tem que ser capaz de deixar que pessoas com usuários autorizados exclua 
-fornecedores do sistema.</t>
-  </si>
-  <si>
-    <t>O sistema tem que ser capaz de deixar usuários autorizados adicionar produtos no 
-estoque, fornecendo informações como: grupo, nome, quantidade, valor unitário, quantidade.</t>
-  </si>
-  <si>
-    <t>O sistema tem que ser capaz de deixar que pessoas com usuários autorizados exclua 
-vendas do sistema.</t>
   </si>
   <si>
     <t>O sistema ficará disponível para as seguintes plataformas:
@@ -203,6 +142,28 @@
     <t>Ter acesso total a área de vendas, mas nas áreas do 
 sistema de acesso fornecedores e acesso estoque 
 apenas visualizar. Acesso ao monitoramento. Não pode ter acesso a área de cadastro de usuários e nem de dar hierarquias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desativar Fornecedores </t>
+  </si>
+  <si>
+    <t>Logistica Produto</t>
+  </si>
+  <si>
+    <t>Logistica Destinário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações de para qual loja ou centro de distribuição irá. Dados como (Nome ou nome fantasia, CNPJ, rua ou avenida, número, CEP, cidade, estado e país) </t>
+  </si>
+  <si>
+    <t>Informações de endereço de origme(Nome ou nome fantasia, CNPJ, rua/avenida/rodovia/estrada, número, CEP, cidade, estado, país). Informações dos produtos (Nome, quantidade, lote, preço unitário e preço total)</t>
+  </si>
+  <si>
+    <t>Modificar Dados Fornecedores</t>
+  </si>
+  <si>
+    <t>O sistema tem que ser capaz de deixar que pessoas com usuários autorizados inative 
+fornecedores do sistema.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +363,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F14C57F5-3393-4317-9E3F-A7E44FEF2017}" name="Tabela1" displayName="Tabela1" ref="B3:D21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F14C57F5-3393-4317-9E3F-A7E44FEF2017}" name="Tabela1" displayName="Tabela1" ref="B3:D15" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{948E407E-C55B-4200-A85B-8BD1BBF3ED1D}" name="REQUISITO" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C83131AE-B289-4BFF-9D9C-6C0D430E85C7}" name="TIPO" dataDxfId="1"/>
@@ -729,25 +690,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C7B6DA-3AC2-49F5-9801-EEB4DB4B5D47}">
-  <dimension ref="B1:G24"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -761,27 +722,27 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -809,192 +770,127 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C21" xr:uid="{EF8B4AEE-1F44-4008-8724-03B3E0A75FE3}">
-      <formula1>$C$4:$C$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C15" xr:uid="{EF8B4AEE-1F44-4008-8724-03B3E0A75FE3}">
+      <formula1>$C$4:$C$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
